--- a/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
@@ -112,17 +112,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -132,16 +141,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -152,6 +151,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A2:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,89 +457,77 @@
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -540,16 +537,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A2:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5703125" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
@@ -558,82 +557,70 @@
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ponds" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
-  <si>
-    <t>Stock 1</t>
-  </si>
-  <si>
-    <t>Stock 2</t>
-  </si>
-  <si>
-    <t>Stock 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Treatment Type</t>
   </si>
@@ -444,55 +435,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -501,33 +487,21 @@
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>14</v>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -537,55 +511,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M4"/>
+  <dimension ref="A2:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -594,33 +562,21 @@
       <c r="H3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>14</v>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Ponds" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,268 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eg. Formaldehyde</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 6
+Not 6''</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units can be set to (Gal), (ml) or (kg).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1:500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1.25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eg. Formaldehyde</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 6
+Not 6''</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units can be set to (Gal), (ml) or (kg).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1:500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1.25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Treatment Type</t>
   </si>
   <si>
-    <t>Pond Level During Treatment</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Concentration</t>
   </si>
   <si>
@@ -57,10 +307,19 @@
     <t>Duration (hours)</t>
   </si>
   <si>
-    <t>Duration (mins)</t>
-  </si>
-  <si>
     <t>Initials</t>
+  </si>
+  <si>
+    <t>Amount (ml)</t>
+  </si>
+  <si>
+    <t>Amoun (Gal)</t>
+  </si>
+  <si>
+    <t>Amount (kg)</t>
+  </si>
+  <si>
+    <t>Water Level During Treatment (Inches)</t>
   </si>
 </sst>
 </file>
@@ -70,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +351,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -434,87 +705,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>11</v>
+      <c r="K3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,64 +806,77 @@
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>11</v>
+      <c r="K3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Treatment Type</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>Water Level During Treatment (Inches)</t>
+  </si>
+  <si>
+    <t>Amount (Gal)</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +760,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>11</v>

--- a/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-treatment.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\data_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E3EF5-C64F-4587-924A-5AAD3C728620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ponds" sheetId="1" r:id="rId1"/>
@@ -24,264 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Eg. Formaldehyde</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 6
-Not 6''</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Units can be set to (Gal), (ml) or (kg).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1:500</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1.25</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. AB, CD</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Stoyel, Quentin</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1999</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. Jan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Eg. Formaldehyde</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 6
-Not 6''</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Units can be set to (Gal), (ml) or (kg).</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1:500</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. 1.25</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Eg. AB, CD</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Treatment Type</t>
   </si>
@@ -323,16 +68,49 @@
   </si>
   <si>
     <t>Amount (Gal)</t>
+  </si>
+  <si>
+    <t>eg. 1999</t>
+  </si>
+  <si>
+    <t>eg, Apr, Sep</t>
+  </si>
+  <si>
+    <t>eg. 1</t>
+  </si>
+  <si>
+    <t>Name of tank</t>
+  </si>
+  <si>
+    <t>Treatment name, must match treatment code in database. Eg. Formaldehyde</t>
+  </si>
+  <si>
+    <t>Eg. 6</t>
+  </si>
+  <si>
+    <t>Units can be set to (Gal), (ml) or (kg).</t>
+  </si>
+  <si>
+    <t>Eg. 1:500</t>
+  </si>
+  <si>
+    <t>Eg. 1.25</t>
+  </si>
+  <si>
+    <t>Eg. AB, CD</t>
+  </si>
+  <si>
+    <t>Name of trough</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,16 +134,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -382,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -399,12 +171,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -427,6 +227,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -708,17 +514,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
@@ -728,86 +534,107 @@
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="1"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+    <row r="3" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
@@ -817,69 +644,91 @@
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>